--- a/data/backup/Atendimentos.xlsx
+++ b/data/backup/Atendimentos.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Minhas coisas\Junior\Python\Projetos Pessoais\Ajudar os Badecos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\ProjectPythonCTk\data\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A98814-DA2A-4AFF-81FC-B98194F3C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EB0BC0-26A5-487C-B170-7B80DB64327E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cronograma de atendimentos</t>
   </si>
@@ -39,6 +40,15 @@
   <si>
     <t>Assunto do chamado</t>
   </si>
+  <si>
+    <t>Kayo</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Mateus</t>
+  </si>
 </sst>
 </file>
 
@@ -47,7 +57,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +99,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -239,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -271,6 +296,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,6 +527,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -824,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -841,9 +873,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="12"/>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -886,4 +918,44 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31D5C8F-4ED0-42D7-98FD-12ECD9FBC397}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/data/backup/Atendimentos.xlsx
+++ b/data/backup/Atendimentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\ProjectPythonCTk\data\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\CronogramaAtendimentos\data\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EB0BC0-26A5-487C-B170-7B80DB64327E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB34D80B-926E-4FDD-B6B6-2D701AA32DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cronograma de atendimentos</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t>Assunto do chamado</t>
-  </si>
-  <si>
-    <t>Kayo</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Mateus</t>
   </si>
 </sst>
 </file>
@@ -527,11 +518,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFFF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -921,12 +907,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31D5C8F-4ED0-42D7-98FD-12ECD9FBC397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -934,19 +918,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="A1" s="13"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="13"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>

--- a/data/backup/Atendimentos.xlsx
+++ b/data/backup/Atendimentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\GitHub\CronogramaAtendimentos\data\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Desktop\Minhas coisas\GitHub\CronogramaAtendimentos\data\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB34D80B-926E-4FDD-B6B6-2D701AA32DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3C863E-2AD3-43FB-A83C-0C0A6C3EF6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -272,23 +272,23 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,9 +849,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="14" customWidth="1"/>
     <col min="5" max="5" width="59.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" customWidth="1"/>
@@ -862,8 +862,8 @@
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -886,13 +886,13 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -918,20 +918,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
+      <c r="A1" s="12"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
